--- a/Results/Categorization/lda2vec.xlsx
+++ b/Results/Categorization/lda2vec.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="1749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="1748">
   <si>
     <t>id</t>
   </si>
@@ -4027,328 +4027,325 @@
     <t>AMBIENCE|SERVICE|SERVICE</t>
   </si>
   <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|SERVICE</t>
+    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|FOOD|FOOD|PRICES|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|SERVICE|FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|SERVICE|FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|PRICES|FOOD|FOOD</t>
@@ -5667,10 +5664,10 @@
         <v>1336</v>
       </c>
       <c r="G2" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H2" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5696,7 +5693,7 @@
         <v>937</v>
       </c>
       <c r="H3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5719,10 +5716,10 @@
         <v>1337</v>
       </c>
       <c r="G4" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H4" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5745,10 +5742,10 @@
         <v>1277</v>
       </c>
       <c r="G5" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H5" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5771,10 +5768,10 @@
         <v>1338</v>
       </c>
       <c r="G6" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H6" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5797,10 +5794,10 @@
         <v>1277</v>
       </c>
       <c r="G7" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H7" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5820,13 +5817,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G8" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H8" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5846,7 +5843,7 @@
         <v>1276</v>
       </c>
       <c r="H9" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5866,13 +5863,13 @@
         <v>1279</v>
       </c>
       <c r="F10" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G10" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H10" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5892,13 +5889,13 @@
         <v>1280</v>
       </c>
       <c r="F11" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G11" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H11" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5921,10 +5918,10 @@
         <v>1277</v>
       </c>
       <c r="G12" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5950,7 +5947,7 @@
         <v>937</v>
       </c>
       <c r="H13" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5973,10 +5970,10 @@
         <v>1277</v>
       </c>
       <c r="G14" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H14" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5999,10 +5996,10 @@
         <v>1338</v>
       </c>
       <c r="G15" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H15" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6022,13 +6019,13 @@
         <v>1282</v>
       </c>
       <c r="F16" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G16" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H16" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6048,7 +6045,7 @@
         <v>1283</v>
       </c>
       <c r="H17" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6071,10 +6068,10 @@
         <v>1338</v>
       </c>
       <c r="G18" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H18" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6094,13 +6091,13 @@
         <v>1275</v>
       </c>
       <c r="F19" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G19" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H19" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6126,7 +6123,7 @@
         <v>937</v>
       </c>
       <c r="H20" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6146,13 +6143,13 @@
         <v>1275</v>
       </c>
       <c r="F21" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G21" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H21" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6172,7 +6169,7 @@
         <v>1284</v>
       </c>
       <c r="H22" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6198,7 +6195,7 @@
         <v>937</v>
       </c>
       <c r="H23" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6224,7 +6221,7 @@
         <v>952</v>
       </c>
       <c r="H24" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6244,13 +6241,13 @@
         <v>1275</v>
       </c>
       <c r="F25" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G25" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H25" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6273,10 +6270,10 @@
         <v>1338</v>
       </c>
       <c r="G26" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H26" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6302,7 +6299,7 @@
         <v>952</v>
       </c>
       <c r="H27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6322,13 +6319,13 @@
         <v>1277</v>
       </c>
       <c r="F28" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G28" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H28" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6351,10 +6348,10 @@
         <v>1338</v>
       </c>
       <c r="G29" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H29" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6377,10 +6374,10 @@
         <v>1277</v>
       </c>
       <c r="G30" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H30" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6400,13 +6397,13 @@
         <v>1278</v>
       </c>
       <c r="F31" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G31" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H31" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6426,13 +6423,13 @@
         <v>1283</v>
       </c>
       <c r="F32" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G32" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H32" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6452,13 +6449,13 @@
         <v>1285</v>
       </c>
       <c r="F33" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G33" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H33" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6481,10 +6478,10 @@
         <v>1338</v>
       </c>
       <c r="G34" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H34" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6507,10 +6504,10 @@
         <v>1338</v>
       </c>
       <c r="G35" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H35" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6530,13 +6527,13 @@
         <v>1283</v>
       </c>
       <c r="F36" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G36" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H36" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6559,10 +6556,10 @@
         <v>1277</v>
       </c>
       <c r="G37" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H37" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6582,13 +6579,13 @@
         <v>1275</v>
       </c>
       <c r="F38" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G38" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H38" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6611,10 +6608,10 @@
         <v>1284</v>
       </c>
       <c r="G39" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H39" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6637,10 +6634,10 @@
         <v>1338</v>
       </c>
       <c r="G40" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H40" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6660,13 +6657,13 @@
         <v>1284</v>
       </c>
       <c r="F41" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G41" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H41" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6686,7 +6683,7 @@
         <v>1284</v>
       </c>
       <c r="H42" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6706,13 +6703,13 @@
         <v>1279</v>
       </c>
       <c r="F43" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G43" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H43" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6732,7 +6729,7 @@
         <v>1277</v>
       </c>
       <c r="H44" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6752,7 +6749,7 @@
         <v>1284</v>
       </c>
       <c r="H45" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6778,7 +6775,7 @@
         <v>972</v>
       </c>
       <c r="H46" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6804,7 +6801,7 @@
         <v>937</v>
       </c>
       <c r="H47" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6827,10 +6824,10 @@
         <v>1338</v>
       </c>
       <c r="G48" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H48" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6856,7 +6853,7 @@
         <v>993</v>
       </c>
       <c r="H49" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6876,13 +6873,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G50" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H50" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6902,13 +6899,13 @@
         <v>1281</v>
       </c>
       <c r="F51" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G51" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H51" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -6931,10 +6928,10 @@
         <v>1338</v>
       </c>
       <c r="G52" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H52" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -6957,10 +6954,10 @@
         <v>1354</v>
       </c>
       <c r="G53" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H53" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -6980,13 +6977,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1337</v>
+        <v>1355</v>
       </c>
       <c r="G54" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H54" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7009,10 +7006,10 @@
         <v>1338</v>
       </c>
       <c r="G55" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H55" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7032,7 +7029,7 @@
         <v>1276</v>
       </c>
       <c r="H56" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7052,13 +7049,13 @@
         <v>1289</v>
       </c>
       <c r="F57" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G57" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H57" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7078,13 +7075,13 @@
         <v>1290</v>
       </c>
       <c r="F58" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G58" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H58" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7104,13 +7101,13 @@
         <v>1275</v>
       </c>
       <c r="F59" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G59" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H59" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7130,13 +7127,13 @@
         <v>1278</v>
       </c>
       <c r="F60" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G60" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H60" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7156,13 +7153,13 @@
         <v>1291</v>
       </c>
       <c r="F61" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G61" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H61" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7182,7 +7179,7 @@
         <v>1275</v>
       </c>
       <c r="H62" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7208,7 +7205,7 @@
         <v>937</v>
       </c>
       <c r="H63" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7228,13 +7225,13 @@
         <v>1289</v>
       </c>
       <c r="F64" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G64" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H64" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7254,13 +7251,13 @@
         <v>1275</v>
       </c>
       <c r="F65" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G65" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H65" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7280,13 +7277,13 @@
         <v>1277</v>
       </c>
       <c r="F66" t="s">
-        <v>1362</v>
+        <v>1337</v>
       </c>
       <c r="G66" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H66" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7306,13 +7303,13 @@
         <v>1275</v>
       </c>
       <c r="F67" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G67" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H67" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7335,10 +7332,10 @@
         <v>1363</v>
       </c>
       <c r="G68" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H68" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7361,10 +7358,10 @@
         <v>1338</v>
       </c>
       <c r="G69" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H69" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7390,7 +7387,7 @@
         <v>993</v>
       </c>
       <c r="H70" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7410,7 +7407,7 @@
         <v>1294</v>
       </c>
       <c r="H71" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7433,10 +7430,10 @@
         <v>1277</v>
       </c>
       <c r="G72" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H72" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7462,7 +7459,7 @@
         <v>937</v>
       </c>
       <c r="H73" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7485,10 +7482,10 @@
         <v>1364</v>
       </c>
       <c r="G74" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H74" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7511,10 +7508,10 @@
         <v>1336</v>
       </c>
       <c r="G75" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H75" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7537,10 +7534,10 @@
         <v>1365</v>
       </c>
       <c r="G76" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H76" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7566,7 +7563,7 @@
         <v>989</v>
       </c>
       <c r="H77" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7586,7 +7583,7 @@
         <v>1284</v>
       </c>
       <c r="H78" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7609,10 +7606,10 @@
         <v>1338</v>
       </c>
       <c r="G79" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H79" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7632,13 +7629,13 @@
         <v>1288</v>
       </c>
       <c r="F80" t="s">
-        <v>1366</v>
+        <v>1339</v>
       </c>
       <c r="G80" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H80" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7658,7 +7655,7 @@
         <v>1277</v>
       </c>
       <c r="H81" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7678,13 +7675,13 @@
         <v>1276</v>
       </c>
       <c r="F82" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G82" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H82" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7704,13 +7701,13 @@
         <v>1277</v>
       </c>
       <c r="F83" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G83" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H83" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7730,13 +7727,13 @@
         <v>1296</v>
       </c>
       <c r="F84" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G84" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H84" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7762,7 +7759,7 @@
         <v>937</v>
       </c>
       <c r="H85" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7788,7 +7785,7 @@
         <v>1004</v>
       </c>
       <c r="H86" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7811,10 +7808,10 @@
         <v>1338</v>
       </c>
       <c r="G87" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H87" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7834,7 +7831,7 @@
         <v>1277</v>
       </c>
       <c r="H88" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7854,7 +7851,7 @@
         <v>1284</v>
       </c>
       <c r="H89" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -7874,13 +7871,13 @@
         <v>1283</v>
       </c>
       <c r="F90" t="s">
-        <v>1361</v>
+        <v>1368</v>
       </c>
       <c r="G90" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H90" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -7900,13 +7897,13 @@
         <v>1277</v>
       </c>
       <c r="F91" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G91" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H91" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -7932,7 +7929,7 @@
         <v>972</v>
       </c>
       <c r="H92" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -7955,10 +7952,10 @@
         <v>1369</v>
       </c>
       <c r="G93" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H93" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -7978,13 +7975,13 @@
         <v>1298</v>
       </c>
       <c r="F94" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G94" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H94" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8004,13 +8001,13 @@
         <v>1276</v>
       </c>
       <c r="F95" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G95" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H95" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8033,10 +8030,10 @@
         <v>1370</v>
       </c>
       <c r="G96" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H96" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8056,13 +8053,13 @@
         <v>1299</v>
       </c>
       <c r="F97" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G97" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H97" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8085,10 +8082,10 @@
         <v>1277</v>
       </c>
       <c r="G98" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H98" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8111,10 +8108,10 @@
         <v>1277</v>
       </c>
       <c r="G99" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H99" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8134,7 +8131,7 @@
         <v>1275</v>
       </c>
       <c r="H100" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8157,10 +8154,10 @@
         <v>1338</v>
       </c>
       <c r="G101" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H101" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8183,10 +8180,10 @@
         <v>1371</v>
       </c>
       <c r="G102" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H102" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8209,10 +8206,10 @@
         <v>1277</v>
       </c>
       <c r="G103" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H103" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8232,13 +8229,13 @@
         <v>1275</v>
       </c>
       <c r="F104" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G104" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H104" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8258,13 +8255,13 @@
         <v>1284</v>
       </c>
       <c r="F105" t="s">
-        <v>1366</v>
+        <v>1339</v>
       </c>
       <c r="G105" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H105" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8290,7 +8287,7 @@
         <v>972</v>
       </c>
       <c r="H106" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8313,10 +8310,10 @@
         <v>1338</v>
       </c>
       <c r="G107" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H107" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8342,7 +8339,7 @@
         <v>935</v>
       </c>
       <c r="H108" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8365,10 +8362,10 @@
         <v>1372</v>
       </c>
       <c r="G109" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H109" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8388,13 +8385,13 @@
         <v>1275</v>
       </c>
       <c r="F110" t="s">
-        <v>1361</v>
+        <v>1368</v>
       </c>
       <c r="G110" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H110" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8414,13 +8411,13 @@
         <v>1295</v>
       </c>
       <c r="F111" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G111" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H111" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8440,13 +8437,13 @@
         <v>1297</v>
       </c>
       <c r="F112" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G112" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H112" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8466,13 +8463,13 @@
         <v>1275</v>
       </c>
       <c r="F113" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G113" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H113" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8495,10 +8492,10 @@
         <v>1338</v>
       </c>
       <c r="G114" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H114" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8521,10 +8518,10 @@
         <v>1284</v>
       </c>
       <c r="G115" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H115" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8550,7 +8547,7 @@
         <v>1069</v>
       </c>
       <c r="H116" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8576,7 +8573,7 @@
         <v>952</v>
       </c>
       <c r="H117" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8596,13 +8593,13 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G118" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H118" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8622,13 +8619,13 @@
         <v>1276</v>
       </c>
       <c r="F119" t="s">
-        <v>1337</v>
+        <v>1355</v>
       </c>
       <c r="G119" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H119" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8648,13 +8645,13 @@
         <v>1277</v>
       </c>
       <c r="F120" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G120" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H120" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8677,10 +8674,10 @@
         <v>1373</v>
       </c>
       <c r="G121" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H121" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8700,13 +8697,13 @@
         <v>1277</v>
       </c>
       <c r="F122" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G122" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H122" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8732,7 +8729,7 @@
         <v>972</v>
       </c>
       <c r="H123" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8758,7 +8755,7 @@
         <v>952</v>
       </c>
       <c r="H124" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8784,7 +8781,7 @@
         <v>935</v>
       </c>
       <c r="H125" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8810,7 +8807,7 @@
         <v>937</v>
       </c>
       <c r="H126" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8833,10 +8830,10 @@
         <v>1338</v>
       </c>
       <c r="G127" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H127" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -8859,10 +8856,10 @@
         <v>1277</v>
       </c>
       <c r="G128" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H128" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -8888,7 +8885,7 @@
         <v>1004</v>
       </c>
       <c r="H129" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -8911,10 +8908,10 @@
         <v>1277</v>
       </c>
       <c r="G130" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H130" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -8937,10 +8934,10 @@
         <v>1374</v>
       </c>
       <c r="G131" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H131" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -8960,13 +8957,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1337</v>
+        <v>1355</v>
       </c>
       <c r="G132" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H132" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -8986,13 +8983,13 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G133" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H133" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9012,13 +9009,13 @@
         <v>1297</v>
       </c>
       <c r="F134" t="s">
-        <v>1375</v>
+        <v>1339</v>
       </c>
       <c r="G134" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H134" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9038,13 +9035,13 @@
         <v>1275</v>
       </c>
       <c r="F135" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="G135" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H135" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9064,13 +9061,13 @@
         <v>1275</v>
       </c>
       <c r="F136" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G136" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H136" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9090,13 +9087,13 @@
         <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1337</v>
+        <v>1355</v>
       </c>
       <c r="G137" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H137" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9116,13 +9113,13 @@
         <v>1297</v>
       </c>
       <c r="F138" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G138" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H138" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9142,13 +9139,13 @@
         <v>1297</v>
       </c>
       <c r="F139" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G139" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H139" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9171,10 +9168,10 @@
         <v>1338</v>
       </c>
       <c r="G140" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H140" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9194,13 +9191,13 @@
         <v>1284</v>
       </c>
       <c r="F141" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G141" t="s">
         <v>972</v>
       </c>
       <c r="H141" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9220,13 +9217,13 @@
         <v>1276</v>
       </c>
       <c r="F142" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G142" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H142" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9246,13 +9243,13 @@
         <v>1275</v>
       </c>
       <c r="F143" t="s">
-        <v>1366</v>
+        <v>1339</v>
       </c>
       <c r="G143" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H143" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9275,10 +9272,10 @@
         <v>1370</v>
       </c>
       <c r="G144" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H144" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9298,13 +9295,13 @@
         <v>1281</v>
       </c>
       <c r="F145" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G145" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H145" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9324,7 +9321,7 @@
         <v>1277</v>
       </c>
       <c r="H146" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9344,7 +9341,7 @@
         <v>1277</v>
       </c>
       <c r="H147" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9364,13 +9361,13 @@
         <v>1283</v>
       </c>
       <c r="F148" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G148" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H148" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9393,10 +9390,10 @@
         <v>1277</v>
       </c>
       <c r="G149" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H149" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9422,7 +9419,7 @@
         <v>993</v>
       </c>
       <c r="H150" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9445,10 +9442,10 @@
         <v>1378</v>
       </c>
       <c r="G151" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H151" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9474,7 +9471,7 @@
         <v>935</v>
       </c>
       <c r="H152" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9497,10 +9494,10 @@
         <v>1277</v>
       </c>
       <c r="G153" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H153" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9520,7 +9517,7 @@
         <v>1276</v>
       </c>
       <c r="H154" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9543,10 +9540,10 @@
         <v>1379</v>
       </c>
       <c r="G155" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H155" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9572,7 +9569,7 @@
         <v>1000</v>
       </c>
       <c r="H156" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9595,10 +9592,10 @@
         <v>1277</v>
       </c>
       <c r="G157" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H157" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9621,10 +9618,10 @@
         <v>1380</v>
       </c>
       <c r="G158" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H158" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9644,13 +9641,13 @@
         <v>1277</v>
       </c>
       <c r="F159" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G159" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H159" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9670,7 +9667,7 @@
         <v>1277</v>
       </c>
       <c r="H160" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9693,10 +9690,10 @@
         <v>1338</v>
       </c>
       <c r="G161" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H161" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9719,10 +9716,10 @@
         <v>1277</v>
       </c>
       <c r="G162" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H162" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9745,10 +9742,10 @@
         <v>1277</v>
       </c>
       <c r="G163" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H163" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9768,13 +9765,13 @@
         <v>1284</v>
       </c>
       <c r="F164" t="s">
-        <v>1366</v>
+        <v>1377</v>
       </c>
       <c r="G164" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H164" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9797,10 +9794,10 @@
         <v>1381</v>
       </c>
       <c r="G165" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H165" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -9820,7 +9817,7 @@
         <v>1277</v>
       </c>
       <c r="H166" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -9843,10 +9840,10 @@
         <v>1382</v>
       </c>
       <c r="G167" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H167" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -9866,7 +9863,7 @@
         <v>1277</v>
       </c>
       <c r="H168" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -9886,13 +9883,13 @@
         <v>1278</v>
       </c>
       <c r="F169" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G169" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H169" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -9915,10 +9912,10 @@
         <v>1383</v>
       </c>
       <c r="G170" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H170" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -9938,13 +9935,13 @@
         <v>1277</v>
       </c>
       <c r="F171" t="s">
-        <v>1366</v>
+        <v>1339</v>
       </c>
       <c r="G171" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H171" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -9967,10 +9964,10 @@
         <v>1338</v>
       </c>
       <c r="G172" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H172" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -9993,10 +9990,10 @@
         <v>1384</v>
       </c>
       <c r="G173" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H173" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10019,10 +10016,10 @@
         <v>1336</v>
       </c>
       <c r="G174" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H174" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10042,13 +10039,13 @@
         <v>1305</v>
       </c>
       <c r="F175" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G175" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H175" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10068,13 +10065,13 @@
         <v>1275</v>
       </c>
       <c r="F176" t="s">
-        <v>1338</v>
+        <v>1382</v>
       </c>
       <c r="G176" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H176" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10097,10 +10094,10 @@
         <v>1277</v>
       </c>
       <c r="G177" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H177" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10120,13 +10117,13 @@
         <v>1295</v>
       </c>
       <c r="F178" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G178" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H178" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10149,10 +10146,10 @@
         <v>1277</v>
       </c>
       <c r="G179" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H179" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10175,10 +10172,10 @@
         <v>1385</v>
       </c>
       <c r="G180" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H180" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10201,10 +10198,10 @@
         <v>1284</v>
       </c>
       <c r="G181" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H181" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10227,10 +10224,10 @@
         <v>1386</v>
       </c>
       <c r="G182" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H182" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10253,10 +10250,10 @@
         <v>1387</v>
       </c>
       <c r="G183" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H183" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10279,10 +10276,10 @@
         <v>1388</v>
       </c>
       <c r="G184" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H184" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10305,10 +10302,10 @@
         <v>1389</v>
       </c>
       <c r="G185" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H185" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10328,13 +10325,13 @@
         <v>1276</v>
       </c>
       <c r="F186" t="s">
-        <v>1366</v>
+        <v>1339</v>
       </c>
       <c r="G186" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H186" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10360,7 +10357,7 @@
         <v>993</v>
       </c>
       <c r="H187" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10383,10 +10380,10 @@
         <v>1277</v>
       </c>
       <c r="G188" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H188" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10406,7 +10403,7 @@
         <v>1277</v>
       </c>
       <c r="H189" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10429,10 +10426,10 @@
         <v>1374</v>
       </c>
       <c r="G190" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H190" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10452,13 +10449,13 @@
         <v>1284</v>
       </c>
       <c r="F191" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G191" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H191" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10481,10 +10478,10 @@
         <v>1338</v>
       </c>
       <c r="G192" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H192" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10510,7 +10507,7 @@
         <v>993</v>
       </c>
       <c r="H193" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10533,10 +10530,10 @@
         <v>1374</v>
       </c>
       <c r="G194" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H194" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10562,7 +10559,7 @@
         <v>937</v>
       </c>
       <c r="H195" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10585,10 +10582,10 @@
         <v>1338</v>
       </c>
       <c r="G196" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H196" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10611,10 +10608,10 @@
         <v>1363</v>
       </c>
       <c r="G197" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H197" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10637,10 +10634,10 @@
         <v>1390</v>
       </c>
       <c r="G198" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H198" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10663,10 +10660,10 @@
         <v>1277</v>
       </c>
       <c r="G199" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H199" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10692,7 +10689,7 @@
         <v>972</v>
       </c>
       <c r="H200" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10712,13 +10709,13 @@
         <v>1284</v>
       </c>
       <c r="F201" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G201" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H201" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10744,7 +10741,7 @@
         <v>1000</v>
       </c>
       <c r="H202" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10767,10 +10764,10 @@
         <v>1284</v>
       </c>
       <c r="G203" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H203" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -10793,10 +10790,10 @@
         <v>1338</v>
       </c>
       <c r="G204" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H204" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -10816,13 +10813,13 @@
         <v>1277</v>
       </c>
       <c r="F205" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G205" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H205" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -10842,13 +10839,13 @@
         <v>1284</v>
       </c>
       <c r="F206" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G206" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H206" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -10871,10 +10868,10 @@
         <v>1391</v>
       </c>
       <c r="G207" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H207" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -10900,7 +10897,7 @@
         <v>1093</v>
       </c>
       <c r="H208" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -10923,10 +10920,10 @@
         <v>1392</v>
       </c>
       <c r="G209" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H209" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -10949,10 +10946,10 @@
         <v>1277</v>
       </c>
       <c r="G210" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H210" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -10975,10 +10972,10 @@
         <v>1393</v>
       </c>
       <c r="G211" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H211" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11004,7 +11001,7 @@
         <v>952</v>
       </c>
       <c r="H212" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11027,10 +11024,10 @@
         <v>1338</v>
       </c>
       <c r="G213" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H213" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11056,7 +11053,7 @@
         <v>1050</v>
       </c>
       <c r="H214" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11076,7 +11073,7 @@
         <v>1277</v>
       </c>
       <c r="H215" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11099,10 +11096,10 @@
         <v>1394</v>
       </c>
       <c r="G216" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H216" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11122,7 +11119,7 @@
         <v>1277</v>
       </c>
       <c r="H217" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11145,10 +11142,10 @@
         <v>1284</v>
       </c>
       <c r="G218" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H218" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11168,13 +11165,13 @@
         <v>1295</v>
       </c>
       <c r="F219" t="s">
-        <v>1350</v>
+        <v>1395</v>
       </c>
       <c r="G219" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H219" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11194,7 +11191,7 @@
         <v>1277</v>
       </c>
       <c r="H220" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11217,10 +11214,10 @@
         <v>1374</v>
       </c>
       <c r="G221" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H221" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11243,10 +11240,10 @@
         <v>1284</v>
       </c>
       <c r="G222" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H222" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11266,13 +11263,13 @@
         <v>1309</v>
       </c>
       <c r="F223" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G223" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H223" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11298,7 +11295,7 @@
         <v>952</v>
       </c>
       <c r="H224" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11318,13 +11315,13 @@
         <v>1275</v>
       </c>
       <c r="F225" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G225" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H225" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11344,13 +11341,13 @@
         <v>1310</v>
       </c>
       <c r="F226" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G226" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H226" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11370,13 +11367,13 @@
         <v>1313</v>
       </c>
       <c r="F227" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G227" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H227" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11399,10 +11396,10 @@
         <v>1381</v>
       </c>
       <c r="G228" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H228" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11428,7 +11425,7 @@
         <v>1093</v>
       </c>
       <c r="H229" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11454,7 +11451,7 @@
         <v>935</v>
       </c>
       <c r="H230" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11480,7 +11477,7 @@
         <v>1093</v>
       </c>
       <c r="H231" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11500,13 +11497,13 @@
         <v>1284</v>
       </c>
       <c r="F232" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G232" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H232" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11526,13 +11523,13 @@
         <v>1275</v>
       </c>
       <c r="F233" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G233" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H233" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11555,10 +11552,10 @@
         <v>1293</v>
       </c>
       <c r="G234" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H234" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11584,7 +11581,7 @@
         <v>952</v>
       </c>
       <c r="H235" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11604,7 +11601,7 @@
         <v>1275</v>
       </c>
       <c r="H236" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11627,10 +11624,10 @@
         <v>1293</v>
       </c>
       <c r="G237" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H237" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11650,7 +11647,7 @@
         <v>1284</v>
       </c>
       <c r="H238" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11670,13 +11667,13 @@
         <v>1299</v>
       </c>
       <c r="F239" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G239" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H239" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11696,13 +11693,13 @@
         <v>1284</v>
       </c>
       <c r="F240" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G240" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H240" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11722,13 +11719,13 @@
         <v>1284</v>
       </c>
       <c r="F241" t="s">
-        <v>1401</v>
+        <v>1362</v>
       </c>
       <c r="G241" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H241" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11751,10 +11748,10 @@
         <v>1402</v>
       </c>
       <c r="G242" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H242" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11780,7 +11777,7 @@
         <v>952</v>
       </c>
       <c r="H243" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -11806,7 +11803,7 @@
         <v>972</v>
       </c>
       <c r="H244" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -11829,10 +11826,10 @@
         <v>1403</v>
       </c>
       <c r="G245" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H245" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -11855,10 +11852,10 @@
         <v>1284</v>
       </c>
       <c r="G246" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H246" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -11878,13 +11875,13 @@
         <v>1317</v>
       </c>
       <c r="F247" t="s">
-        <v>1404</v>
+        <v>1378</v>
       </c>
       <c r="G247" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H247" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -11904,13 +11901,13 @@
         <v>1275</v>
       </c>
       <c r="F248" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G248" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H248" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -11930,13 +11927,13 @@
         <v>1275</v>
       </c>
       <c r="F249" t="s">
-        <v>1343</v>
+        <v>1362</v>
       </c>
       <c r="G249" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H249" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -11956,13 +11953,13 @@
         <v>1275</v>
       </c>
       <c r="F250" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G250" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H250" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -11988,7 +11985,7 @@
         <v>935</v>
       </c>
       <c r="H251" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12014,7 +12011,7 @@
         <v>989</v>
       </c>
       <c r="H252" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12040,7 +12037,7 @@
         <v>989</v>
       </c>
       <c r="H253" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12060,13 +12057,13 @@
         <v>1304</v>
       </c>
       <c r="F254" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G254" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H254" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12089,10 +12086,10 @@
         <v>1338</v>
       </c>
       <c r="G255" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H255" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12112,13 +12109,13 @@
         <v>1299</v>
       </c>
       <c r="F256" t="s">
-        <v>1408</v>
+        <v>1341</v>
       </c>
       <c r="G256" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H256" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12138,13 +12135,13 @@
         <v>1275</v>
       </c>
       <c r="F257" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="G257" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H257" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12167,10 +12164,10 @@
         <v>1374</v>
       </c>
       <c r="G258" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H258" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12196,7 +12193,7 @@
         <v>952</v>
       </c>
       <c r="H259" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12219,10 +12216,10 @@
         <v>1338</v>
       </c>
       <c r="G260" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H260" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12245,10 +12242,10 @@
         <v>1293</v>
       </c>
       <c r="G261" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H261" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12268,13 +12265,13 @@
         <v>1285</v>
       </c>
       <c r="F262" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="G262" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H262" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12297,10 +12294,10 @@
         <v>1277</v>
       </c>
       <c r="G263" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H263" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12326,7 +12323,7 @@
         <v>1069</v>
       </c>
       <c r="H264" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12349,10 +12346,10 @@
         <v>1293</v>
       </c>
       <c r="G265" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H265" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12372,7 +12369,7 @@
         <v>1284</v>
       </c>
       <c r="H266" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12392,13 +12389,13 @@
         <v>1284</v>
       </c>
       <c r="F267" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G267" t="s">
         <v>972</v>
       </c>
       <c r="H267" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12418,13 +12415,13 @@
         <v>1299</v>
       </c>
       <c r="F268" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="G268" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H268" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12444,13 +12441,13 @@
         <v>1275</v>
       </c>
       <c r="F269" t="s">
-        <v>1373</v>
+        <v>1336</v>
       </c>
       <c r="G269" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H269" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12473,10 +12470,10 @@
         <v>1386</v>
       </c>
       <c r="G270" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H270" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12496,13 +12493,13 @@
         <v>1293</v>
       </c>
       <c r="F271" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G271" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H271" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12522,13 +12519,13 @@
         <v>1278</v>
       </c>
       <c r="F272" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G272" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H272" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12548,13 +12545,13 @@
         <v>1285</v>
       </c>
       <c r="F273" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G273" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H273" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12577,10 +12574,10 @@
         <v>1373</v>
       </c>
       <c r="G274" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H274" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12600,13 +12597,13 @@
         <v>1275</v>
       </c>
       <c r="F275" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G275" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H275" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12626,13 +12623,13 @@
         <v>1303</v>
       </c>
       <c r="F276" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G276" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H276" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12655,10 +12652,10 @@
         <v>1277</v>
       </c>
       <c r="G277" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H277" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12678,13 +12675,13 @@
         <v>1278</v>
       </c>
       <c r="F278" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G278" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H278" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12707,10 +12704,10 @@
         <v>1370</v>
       </c>
       <c r="G279" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H279" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12730,13 +12727,13 @@
         <v>1318</v>
       </c>
       <c r="F280" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G280" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H280" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12756,13 +12753,13 @@
         <v>1275</v>
       </c>
       <c r="F281" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G281" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H281" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -12785,10 +12782,10 @@
         <v>1284</v>
       </c>
       <c r="G282" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H282" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -12808,13 +12805,13 @@
         <v>1275</v>
       </c>
       <c r="F283" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G283" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H283" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -12834,13 +12831,13 @@
         <v>1275</v>
       </c>
       <c r="F284" t="s">
-        <v>1404</v>
+        <v>1409</v>
       </c>
       <c r="G284" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H284" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -12866,7 +12863,7 @@
         <v>1228</v>
       </c>
       <c r="H285" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -12892,7 +12889,7 @@
         <v>989</v>
       </c>
       <c r="H286" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -12912,13 +12909,13 @@
         <v>1275</v>
       </c>
       <c r="F287" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G287" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H287" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -12944,7 +12941,7 @@
         <v>1119</v>
       </c>
       <c r="H288" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -12970,7 +12967,7 @@
         <v>952</v>
       </c>
       <c r="H289" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -12990,13 +12987,13 @@
         <v>1319</v>
       </c>
       <c r="F290" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G290" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H290" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13016,13 +13013,13 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1404</v>
+        <v>1409</v>
       </c>
       <c r="G291" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H291" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13042,7 +13039,7 @@
         <v>1275</v>
       </c>
       <c r="H292" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13065,10 +13062,10 @@
         <v>1403</v>
       </c>
       <c r="G293" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H293" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13091,10 +13088,10 @@
         <v>1338</v>
       </c>
       <c r="G294" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H294" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13117,10 +13114,10 @@
         <v>1277</v>
       </c>
       <c r="G295" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H295" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13143,10 +13140,10 @@
         <v>1365</v>
       </c>
       <c r="G296" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H296" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13166,13 +13163,13 @@
         <v>1275</v>
       </c>
       <c r="F297" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G297" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H297" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13195,10 +13192,10 @@
         <v>1373</v>
       </c>
       <c r="G298" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H298" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13221,10 +13218,10 @@
         <v>1381</v>
       </c>
       <c r="G299" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H299" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13244,13 +13241,13 @@
         <v>1284</v>
       </c>
       <c r="F300" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G300" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H300" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13276,7 +13273,7 @@
         <v>952</v>
       </c>
       <c r="H301" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13299,10 +13296,10 @@
         <v>1374</v>
       </c>
       <c r="G302" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H302" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13325,10 +13322,10 @@
         <v>1284</v>
       </c>
       <c r="G303" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H303" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13348,13 +13345,13 @@
         <v>1293</v>
       </c>
       <c r="F304" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G304" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H304" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13374,13 +13371,13 @@
         <v>1275</v>
       </c>
       <c r="F305" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G305" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H305" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13400,13 +13397,13 @@
         <v>1275</v>
       </c>
       <c r="F306" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G306" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H306" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13426,13 +13423,13 @@
         <v>1284</v>
       </c>
       <c r="F307" t="s">
-        <v>1381</v>
+        <v>1370</v>
       </c>
       <c r="G307" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H307" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13452,13 +13449,13 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G308" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H308" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13478,13 +13475,13 @@
         <v>1275</v>
       </c>
       <c r="F309" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G309" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H309" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13510,7 +13507,7 @@
         <v>1004</v>
       </c>
       <c r="H310" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13536,7 +13533,7 @@
         <v>937</v>
       </c>
       <c r="H311" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13556,13 +13553,13 @@
         <v>1275</v>
       </c>
       <c r="F312" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G312" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H312" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13588,7 +13585,7 @@
         <v>952</v>
       </c>
       <c r="H313" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13611,10 +13608,10 @@
         <v>1383</v>
       </c>
       <c r="G314" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H314" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13640,7 +13637,7 @@
         <v>1093</v>
       </c>
       <c r="H315" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13666,7 +13663,7 @@
         <v>1093</v>
       </c>
       <c r="H316" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13692,7 +13689,7 @@
         <v>972</v>
       </c>
       <c r="H317" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13712,13 +13709,13 @@
         <v>1284</v>
       </c>
       <c r="F318" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G318" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H318" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13744,7 +13741,7 @@
         <v>952</v>
       </c>
       <c r="H319" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -13770,7 +13767,7 @@
         <v>952</v>
       </c>
       <c r="H320" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -13790,13 +13787,13 @@
         <v>1293</v>
       </c>
       <c r="F321" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G321" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H321" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -13816,7 +13813,7 @@
         <v>1275</v>
       </c>
       <c r="H322" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -13836,13 +13833,13 @@
         <v>1275</v>
       </c>
       <c r="F323" t="s">
-        <v>1361</v>
+        <v>1368</v>
       </c>
       <c r="G323" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H323" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -13865,10 +13862,10 @@
         <v>1338</v>
       </c>
       <c r="G324" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H324" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -13888,7 +13885,7 @@
         <v>1284</v>
       </c>
       <c r="H325" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -13908,13 +13905,13 @@
         <v>1284</v>
       </c>
       <c r="F326" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G326" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H326" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -13934,13 +13931,13 @@
         <v>1314</v>
       </c>
       <c r="F327" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G327" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H327" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -13960,13 +13957,13 @@
         <v>1284</v>
       </c>
       <c r="F328" t="s">
-        <v>1420</v>
+        <v>1349</v>
       </c>
       <c r="G328" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H328" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -13986,13 +13983,13 @@
         <v>1309</v>
       </c>
       <c r="F329" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G329" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H329" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14012,13 +14009,13 @@
         <v>1278</v>
       </c>
       <c r="F330" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G330" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H330" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14044,7 +14041,7 @@
         <v>952</v>
       </c>
       <c r="H331" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14070,7 +14067,7 @@
         <v>1093</v>
       </c>
       <c r="H332" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14090,13 +14087,13 @@
         <v>1275</v>
       </c>
       <c r="F333" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G333" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H333" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14116,13 +14113,13 @@
         <v>1284</v>
       </c>
       <c r="F334" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G334" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H334" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14142,13 +14139,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G335" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H335" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14171,10 +14168,10 @@
         <v>1277</v>
       </c>
       <c r="G336" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H336" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14194,13 +14191,13 @@
         <v>1296</v>
       </c>
       <c r="F337" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G337" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H337" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14223,10 +14220,10 @@
         <v>1284</v>
       </c>
       <c r="G338" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H338" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14249,10 +14246,10 @@
         <v>1374</v>
       </c>
       <c r="G339" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H339" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14272,7 +14269,7 @@
         <v>1284</v>
       </c>
       <c r="H340" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14292,13 +14289,13 @@
         <v>1321</v>
       </c>
       <c r="F341" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G341" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H341" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14318,13 +14315,13 @@
         <v>1310</v>
       </c>
       <c r="F342" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G342" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H342" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14344,13 +14341,13 @@
         <v>1310</v>
       </c>
       <c r="F343" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G343" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H343" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14370,13 +14367,13 @@
         <v>1296</v>
       </c>
       <c r="F344" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G344" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H344" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14399,10 +14396,10 @@
         <v>1379</v>
       </c>
       <c r="G345" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H345" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14422,7 +14419,7 @@
         <v>1275</v>
       </c>
       <c r="H346" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14442,13 +14439,13 @@
         <v>1316</v>
       </c>
       <c r="F347" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G347" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H347" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14471,10 +14468,10 @@
         <v>1374</v>
       </c>
       <c r="G348" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H348" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14494,13 +14491,13 @@
         <v>1299</v>
       </c>
       <c r="F349" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G349" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H349" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14520,13 +14517,13 @@
         <v>1323</v>
       </c>
       <c r="F350" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G350" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H350" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14546,13 +14543,13 @@
         <v>1278</v>
       </c>
       <c r="F351" t="s">
-        <v>1366</v>
+        <v>1339</v>
       </c>
       <c r="G351" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H351" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14572,13 +14569,13 @@
         <v>1299</v>
       </c>
       <c r="F352" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G352" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H352" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14598,13 +14595,13 @@
         <v>1275</v>
       </c>
       <c r="F353" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G353" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H353" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14624,13 +14621,13 @@
         <v>1275</v>
       </c>
       <c r="F354" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G354" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H354" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14656,7 +14653,7 @@
         <v>1093</v>
       </c>
       <c r="H355" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14676,13 +14673,13 @@
         <v>1275</v>
       </c>
       <c r="F356" t="s">
-        <v>1361</v>
+        <v>1374</v>
       </c>
       <c r="G356" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H356" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14705,10 +14702,10 @@
         <v>1403</v>
       </c>
       <c r="G357" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H357" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -14728,7 +14725,7 @@
         <v>1321</v>
       </c>
       <c r="H358" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -14754,7 +14751,7 @@
         <v>972</v>
       </c>
       <c r="H359" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -14774,7 +14771,7 @@
         <v>1284</v>
       </c>
       <c r="H360" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -14794,13 +14791,13 @@
         <v>1324</v>
       </c>
       <c r="F361" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G361" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H361" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -14823,10 +14820,10 @@
         <v>1284</v>
       </c>
       <c r="G362" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H362" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -14852,7 +14849,7 @@
         <v>989</v>
       </c>
       <c r="H363" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -14872,13 +14869,13 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1366</v>
+        <v>1339</v>
       </c>
       <c r="G364" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H364" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -14901,10 +14898,10 @@
         <v>1277</v>
       </c>
       <c r="G365" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H365" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -14924,13 +14921,13 @@
         <v>1285</v>
       </c>
       <c r="F366" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G366" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H366" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -14950,13 +14947,13 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1431</v>
+        <v>1410</v>
       </c>
       <c r="G367" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H367" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -14976,13 +14973,13 @@
         <v>1278</v>
       </c>
       <c r="F368" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G368" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H368" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15002,13 +14999,13 @@
         <v>1293</v>
       </c>
       <c r="F369" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G369" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H369" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15034,7 +15031,7 @@
         <v>1119</v>
       </c>
       <c r="H370" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15057,10 +15054,10 @@
         <v>1338</v>
       </c>
       <c r="G371" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H371" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15080,13 +15077,13 @@
         <v>1297</v>
       </c>
       <c r="F372" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G372" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H372" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15106,13 +15103,13 @@
         <v>1321</v>
       </c>
       <c r="F373" t="s">
-        <v>1338</v>
+        <v>1382</v>
       </c>
       <c r="G373" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H373" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15132,7 +15129,7 @@
         <v>1284</v>
       </c>
       <c r="H374" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15152,7 +15149,7 @@
         <v>1278</v>
       </c>
       <c r="H375" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15172,7 +15169,7 @@
         <v>1284</v>
       </c>
       <c r="H376" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15192,7 +15189,7 @@
         <v>1284</v>
       </c>
       <c r="H377" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15212,7 +15209,7 @@
         <v>1284</v>
       </c>
       <c r="H378" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15238,7 +15235,7 @@
         <v>1119</v>
       </c>
       <c r="H379" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15258,13 +15255,13 @@
         <v>1278</v>
       </c>
       <c r="F380" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="G380" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H380" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15284,13 +15281,13 @@
         <v>1278</v>
       </c>
       <c r="F381" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G381" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H381" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15310,7 +15307,7 @@
         <v>1284</v>
       </c>
       <c r="H382" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15330,13 +15327,13 @@
         <v>1325</v>
       </c>
       <c r="F383" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="G383" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H383" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15356,13 +15353,13 @@
         <v>1284</v>
       </c>
       <c r="F384" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G384" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H384" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15385,10 +15382,10 @@
         <v>1293</v>
       </c>
       <c r="G385" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H385" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15408,13 +15405,13 @@
         <v>1326</v>
       </c>
       <c r="F386" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="G386" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H386" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15434,13 +15431,13 @@
         <v>1327</v>
       </c>
       <c r="F387" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="G387" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H387" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15460,13 +15457,13 @@
         <v>1328</v>
       </c>
       <c r="F388" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="G388" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H388" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15486,13 +15483,13 @@
         <v>1278</v>
       </c>
       <c r="F389" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G389" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H389" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15512,13 +15509,13 @@
         <v>1324</v>
       </c>
       <c r="F390" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="G390" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H390" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15544,7 +15541,7 @@
         <v>1000</v>
       </c>
       <c r="H391" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15564,13 +15561,13 @@
         <v>1282</v>
       </c>
       <c r="F392" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G392" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H392" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15590,13 +15587,13 @@
         <v>1284</v>
       </c>
       <c r="F393" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G393" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H393" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15619,10 +15616,10 @@
         <v>1338</v>
       </c>
       <c r="G394" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H394" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15642,13 +15639,13 @@
         <v>1284</v>
       </c>
       <c r="F395" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G395" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H395" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -15668,13 +15665,13 @@
         <v>1284</v>
       </c>
       <c r="F396" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G396" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H396" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -15694,13 +15691,13 @@
         <v>1278</v>
       </c>
       <c r="F397" t="s">
-        <v>1353</v>
+        <v>1376</v>
       </c>
       <c r="G397" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H397" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -15720,13 +15717,13 @@
         <v>1284</v>
       </c>
       <c r="F398" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G398" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H398" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -15749,10 +15746,10 @@
         <v>1370</v>
       </c>
       <c r="G399" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H399" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -15772,13 +15769,13 @@
         <v>1284</v>
       </c>
       <c r="F400" t="s">
-        <v>1424</v>
+        <v>1381</v>
       </c>
       <c r="G400" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H400" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -15798,13 +15795,13 @@
         <v>1278</v>
       </c>
       <c r="F401" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="G401" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H401" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -15824,13 +15821,13 @@
         <v>1293</v>
       </c>
       <c r="F402" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G402" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H402" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -15850,13 +15847,13 @@
         <v>1284</v>
       </c>
       <c r="F403" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G403" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H403" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -15876,13 +15873,13 @@
         <v>1303</v>
       </c>
       <c r="F404" t="s">
-        <v>1350</v>
+        <v>1395</v>
       </c>
       <c r="G404" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H404" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -15908,7 +15905,7 @@
         <v>1228</v>
       </c>
       <c r="H405" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -15934,7 +15931,7 @@
         <v>1228</v>
       </c>
       <c r="H406" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -15954,13 +15951,13 @@
         <v>1284</v>
       </c>
       <c r="F407" t="s">
-        <v>1370</v>
+        <v>1381</v>
       </c>
       <c r="G407" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H407" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -15980,7 +15977,7 @@
         <v>1278</v>
       </c>
       <c r="H408" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16000,13 +15997,13 @@
         <v>1324</v>
       </c>
       <c r="F409" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G409" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H409" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16032,7 +16029,7 @@
         <v>1093</v>
       </c>
       <c r="H410" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16052,7 +16049,7 @@
         <v>1293</v>
       </c>
       <c r="H411" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16075,10 +16072,10 @@
         <v>1284</v>
       </c>
       <c r="G412" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H412" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16098,13 +16095,13 @@
         <v>1284</v>
       </c>
       <c r="F413" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G413" t="s">
         <v>972</v>
       </c>
       <c r="H413" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16124,7 +16121,7 @@
         <v>1284</v>
       </c>
       <c r="H414" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16144,13 +16141,13 @@
         <v>1323</v>
       </c>
       <c r="F415" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="G415" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H415" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16170,13 +16167,13 @@
         <v>1284</v>
       </c>
       <c r="F416" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="G416" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H416" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16196,13 +16193,13 @@
         <v>1311</v>
       </c>
       <c r="F417" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G417" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H417" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16222,7 +16219,7 @@
         <v>1284</v>
       </c>
       <c r="H418" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16245,10 +16242,10 @@
         <v>1383</v>
       </c>
       <c r="G419" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H419" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16271,10 +16268,10 @@
         <v>1284</v>
       </c>
       <c r="G420" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H420" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16297,10 +16294,10 @@
         <v>1284</v>
       </c>
       <c r="G421" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H421" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16320,13 +16317,13 @@
         <v>1330</v>
       </c>
       <c r="F422" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="G422" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H422" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16346,13 +16343,13 @@
         <v>1294</v>
       </c>
       <c r="F423" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G423" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H423" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16372,7 +16369,7 @@
         <v>1284</v>
       </c>
       <c r="H424" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16392,13 +16389,13 @@
         <v>1293</v>
       </c>
       <c r="F425" t="s">
-        <v>1411</v>
+        <v>1381</v>
       </c>
       <c r="G425" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H425" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16418,13 +16415,13 @@
         <v>1285</v>
       </c>
       <c r="F426" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G426" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H426" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16450,7 +16447,7 @@
         <v>1069</v>
       </c>
       <c r="H427" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16470,7 +16467,7 @@
         <v>1284</v>
       </c>
       <c r="H428" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16493,10 +16490,10 @@
         <v>1381</v>
       </c>
       <c r="G429" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H429" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16516,13 +16513,13 @@
         <v>1329</v>
       </c>
       <c r="F430" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="G430" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H430" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16548,7 +16545,7 @@
         <v>1119</v>
       </c>
       <c r="H431" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16571,10 +16568,10 @@
         <v>1293</v>
       </c>
       <c r="G432" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H432" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16594,13 +16591,13 @@
         <v>1284</v>
       </c>
       <c r="F433" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="G433" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H433" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16620,13 +16617,13 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1366</v>
+        <v>1339</v>
       </c>
       <c r="G434" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="H434" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -16646,7 +16643,7 @@
         <v>1296</v>
       </c>
       <c r="H435" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -16672,7 +16669,7 @@
         <v>1093</v>
       </c>
       <c r="H436" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -16692,13 +16689,13 @@
         <v>1293</v>
       </c>
       <c r="F437" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="G437" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H437" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -16721,10 +16718,10 @@
         <v>1338</v>
       </c>
       <c r="G438" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H438" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -16744,7 +16741,7 @@
         <v>1284</v>
       </c>
       <c r="H439" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -16770,7 +16767,7 @@
         <v>952</v>
       </c>
       <c r="H440" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -16790,13 +16787,13 @@
         <v>1293</v>
       </c>
       <c r="F441" t="s">
-        <v>1401</v>
+        <v>1362</v>
       </c>
       <c r="G441" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H441" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -16822,7 +16819,7 @@
         <v>1093</v>
       </c>
       <c r="H442" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -16842,7 +16839,7 @@
         <v>1278</v>
       </c>
       <c r="H443" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -16865,10 +16862,10 @@
         <v>1338</v>
       </c>
       <c r="G444" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H444" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -16888,13 +16885,13 @@
         <v>1278</v>
       </c>
       <c r="F445" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="G445" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H445" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -16914,13 +16911,13 @@
         <v>1278</v>
       </c>
       <c r="F446" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G446" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H446" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -16940,13 +16937,13 @@
         <v>1293</v>
       </c>
       <c r="F447" t="s">
-        <v>1345</v>
+        <v>1443</v>
       </c>
       <c r="G447" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H447" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -16966,13 +16963,13 @@
         <v>1278</v>
       </c>
       <c r="F448" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G448" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H448" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -16992,13 +16989,13 @@
         <v>1331</v>
       </c>
       <c r="F449" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G449" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H449" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17018,13 +17015,13 @@
         <v>1278</v>
       </c>
       <c r="F450" t="s">
-        <v>1366</v>
+        <v>1339</v>
       </c>
       <c r="G450" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H450" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17047,10 +17044,10 @@
         <v>1293</v>
       </c>
       <c r="G451" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H451" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17070,13 +17067,13 @@
         <v>1284</v>
       </c>
       <c r="F452" t="s">
-        <v>1366</v>
+        <v>1339</v>
       </c>
       <c r="G452" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H452" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17096,7 +17093,7 @@
         <v>1293</v>
       </c>
       <c r="H453" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17122,7 +17119,7 @@
         <v>1004</v>
       </c>
       <c r="H454" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17142,13 +17139,13 @@
         <v>1293</v>
       </c>
       <c r="F455" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G455" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H455" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17168,13 +17165,13 @@
         <v>1332</v>
       </c>
       <c r="F456" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G456" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H456" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17194,13 +17191,13 @@
         <v>1333</v>
       </c>
       <c r="F457" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G457" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H457" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17220,13 +17217,13 @@
         <v>1278</v>
       </c>
       <c r="F458" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G458" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H458" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17249,10 +17246,10 @@
         <v>1338</v>
       </c>
       <c r="G459" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H459" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17278,7 +17275,7 @@
         <v>1119</v>
       </c>
       <c r="H460" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17298,13 +17295,13 @@
         <v>1293</v>
       </c>
       <c r="F461" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G461" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H461" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17330,7 +17327,7 @@
         <v>952</v>
       </c>
       <c r="H462" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17350,13 +17347,13 @@
         <v>1321</v>
       </c>
       <c r="F463" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G463" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H463" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -17382,7 +17379,7 @@
         <v>972</v>
       </c>
       <c r="H464" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -17405,10 +17402,10 @@
         <v>1338</v>
       </c>
       <c r="G465" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H465" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
   </sheetData>
